--- a/document/data source_課程資料/國中/skills_info/skill_info_數學2下.xlsx
+++ b/document/data source_課程資料/國中/skills_info/skill_info_數學2下.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\math-master\document\data source_課程資料\國中\skills_info\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="11083"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="這是下半部分 分析完後產生資料給我" sheetId="1" r:id="rId4"/>
+    <sheet name="這是下半部分 分析完後產生資料給我" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -61,9 +69,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「等差數列」的「後項減前項」會是固定值（公差）。</t>
-  </si>
-  <si>
     <t>jh_arithmetic_seq_term_calc</t>
   </si>
   <si>
@@ -76,9 +81,6 @@
     <t>熟練計算等差數列的第 n 項：aₙ = a₁ + (n-1)d。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，請引導學生檢查首項 a₁、公差 d 或項數 n 是否代入公式 aₙ = a₁ + (n-1)d 正確。</t>
-  </si>
-  <si>
     <t>jh_arithmetic_seq_mean_calc</t>
   </si>
   <si>
@@ -91,9 +93,6 @@
     <t>熟練計算三數 a, b, c 成等差時的等差中項 b = (a+c) / 2。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「等差中項」 = (前後兩項相加) / 2。</t>
-  </si>
-  <si>
     <t>jh_arithmetic_series_def</t>
   </si>
   <si>
@@ -106,9 +105,6 @@
     <t>熟練辨識等差級數（將等差數列用 + 號連接）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「級數」是將「數列」的各項相加。</t>
-  </si>
-  <si>
     <t>jh_arithmetic_series_sum_calc</t>
   </si>
   <si>
@@ -121,9 +117,6 @@
     <t>熟練計算等差級數和 Sₙ = n(a₁ + aₙ) / 2。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生使用公式 Sₙ = (項數 × (首項 + 末項)) / 2，並檢查項數 n 是否正確。</t>
-  </si>
-  <si>
     <t>jh_geometric_seq_def</t>
   </si>
   <si>
@@ -136,9 +129,6 @@
     <t>熟練判斷一數列是否為等比數列，並找出其公比 (r)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「等比數列」的「後項除以前項」會是固定值（公比）。</t>
-  </si>
-  <si>
     <t>jh_geometric_seq_term_calc</t>
   </si>
   <si>
@@ -151,9 +141,6 @@
     <t>熟練計算等比數列的第 n 項：aₙ = a₁ · rⁿ⁻¹。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，請引導學生檢查首項 a₁、公比 r 或項數 (n-1) (指數) 是否代入公式 aₙ = a₁ · rⁿ⁻¹ 正確。</t>
-  </si>
-  <si>
     <t>jh_geometric_seq_mean_calc</t>
   </si>
   <si>
@@ -166,9 +153,6 @@
     <t>熟練計算三數 a, b, c 成等比時的等比中項 b² = ac (b = ±√ac)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「等比中項」b² = ac，因此 b = ±√(ac)，注意有「正負」兩解。</t>
-  </si>
-  <si>
     <t>jh_fibonacci_seq_def</t>
   </si>
   <si>
@@ -181,9 +165,6 @@
     <t>認識費氏數列（ Fₙ = Fₙ₋₁ + Fₙ₋₂ ）的規律。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生費氏數列：1, 1, 2, 3, 5, 8... (後項 = 前兩項之和)。</t>
-  </si>
-  <si>
     <t>jh_function_def_check</t>
   </si>
   <si>
@@ -199,9 +180,6 @@
     <t>熟練判斷 y 是否為 x 的函數（一個 x 只能對應到「唯一」一個 y）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「函數」的定義：給定一個 x 值，只能得到「一個」y 值。</t>
-  </si>
-  <si>
     <t>jh_function_linear_def</t>
   </si>
   <si>
@@ -214,9 +192,6 @@
     <t>熟練辨識線型函數 y = ax + b（含一次函數 a≠0, 常數函數 a=0）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「線型函數」y = ax + b，圖形是直線。若 a=0 (y=b) 稱為常數函數；若 a≠0 稱為一次函數。</t>
-  </si>
-  <si>
     <t>jh_function_linear_find_eq</t>
   </si>
   <si>
@@ -229,9 +204,6 @@
     <t>熟練利用已知兩點 (x₁, y₁) (x₂, y₂) 求出線型函數 y = ax + b。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生將兩點坐標分別代入 y = ax + b，解 a 和 b 的聯立方程式。</t>
-  </si>
-  <si>
     <t>jh_geo_angle_types_relations</t>
   </si>
   <si>
@@ -247,9 +219,6 @@
     <t>熟練辨識銳角/直角/鈍角/平角/周角，以及餘角/補角/對頂角。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「互餘」= 相加 90°；「互補」= 相加 180°；「對頂角」相等。</t>
-  </si>
-  <si>
     <t>jh_geo_triangle_angle_sum_interior</t>
   </si>
   <si>
@@ -262,9 +231,6 @@
     <t>熟練應用三角形內角和 180°。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「三角形內角和」恆為 180°。</t>
-  </si>
-  <si>
     <t>jh_geo_triangle_angle_exterior</t>
   </si>
   <si>
@@ -277,9 +243,6 @@
     <t>熟練應用三角形外角定理（任一外角 = 兩個不相鄰的內角和）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「外角定理」：外角 = 內對角 1 + 內對角 2。</t>
-  </si>
-  <si>
     <t>jh_geo_polygon_angle_sum_interior</t>
   </si>
   <si>
@@ -292,9 +255,6 @@
     <t>熟練計算 n 邊形內角和 (n-2) × 180°。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 n 邊形內角和 = (n-2) × 180°。</t>
-  </si>
-  <si>
     <t>jh_geo_polygon_angle_sum_exterior</t>
   </si>
   <si>
@@ -307,9 +267,6 @@
     <t>熟練應用 n 邊形外角和恆為 360°。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「任何」凸多邊形的外角和「永遠」是 360°。</t>
-  </si>
-  <si>
     <t>jh_geo_construct_line_segment</t>
   </si>
   <si>
@@ -325,9 +282,6 @@
     <t>handwriting</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案（圖形）：{correct_answer}。如果錯誤，提醒學生使用「圓規」量取線段長度，並在新直線上畫弧。</t>
-  </si>
-  <si>
     <t>jh_geo_construct_angle</t>
   </si>
   <si>
@@ -340,9 +294,6 @@
     <t>熟練使用尺規作圖複製一個角。</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案（圖形）：{correct_answer}。如果錯誤，引導學生檢查「等角作圖」的步驟：1. 畫弧 2. 量開口 3. 畫弧。</t>
-  </si>
-  <si>
     <t>jh_geo_construct_perpendicular_bisector</t>
   </si>
   <si>
@@ -355,9 +306,6 @@
     <t>熟練使用尺規作圖作出線段的中垂線。</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案（圖形）：{correct_answer}。如果錯誤，提醒學生需以「兩端點」為圓心，「大於 1/2 線段長」為半徑畫弧。</t>
-  </si>
-  <si>
     <t>jh_geo_construct_angle_bisector</t>
   </si>
   <si>
@@ -370,9 +318,6 @@
     <t>熟練使用尺規作圖作出角的角平分線。</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案（圖形）：{correct_answer}。如果錯誤，引導學生檢查「角平分線」的步驟：1. (以頂點) 畫弧 2. (以交點) 畫弧 3. 連線。</t>
-  </si>
-  <si>
     <t>jh_geo_construct_perpendicular_point_on_line</t>
   </si>
   <si>
@@ -385,9 +330,6 @@
     <t>熟練使用尺規作圖作出過線上一點 P 的垂線。</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案（圖形）：{correct_answer}。如果錯誤，提醒學生以 P 為圓心，在線上取 A, B 兩點，再作 AB 的中垂線。</t>
-  </si>
-  <si>
     <t>jh_geo_construct_perpendicular_point_off_line</t>
   </si>
   <si>
@@ -400,9 +342,6 @@
     <t>熟練使用尺規作圖作出過線外一點 P 的垂線。</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案（圖形）：{correct_answer}。如果錯誤，提醒學生以 P 為圓心畫弧交 L 於 A, B，再作 AB 的中垂線。</t>
-  </si>
-  <si>
     <t>jh_geo_congruence_def</t>
   </si>
   <si>
@@ -415,9 +354,6 @@
     <t>熟練辨識全等三角形的對應邊與對應角。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 △ABC ≅ △DEF ⇔ A 對 D, B 對 E, C 對 F。</t>
-  </si>
-  <si>
     <t>jh_geo_congruence_sss</t>
   </si>
   <si>
@@ -430,9 +366,6 @@
     <t>熟練應用 SSS 全等性質判斷三角形是否全等。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 SSS (邊邊邊)：需「三組對應邊」皆等長。</t>
-  </si>
-  <si>
     <t>jh_geo_congruence_sas</t>
   </si>
   <si>
@@ -445,9 +378,6 @@
     <t>熟練應用 SAS 全等性質判斷三角形是否全等。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 SAS (邊角邊)：角(A) 必須是兩邊(S, S) 的「夾角」。</t>
-  </si>
-  <si>
     <t>jh_geo_congruence_asa</t>
   </si>
   <si>
@@ -460,9 +390,6 @@
     <t>熟練應用 ASA 全等性質判斷三角形是否全等。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 ASA (角邊角)：邊(S) 必須是兩角(A, A) 的「夾邊」。</t>
-  </si>
-  <si>
     <t>jh_geo_congruence_aas</t>
   </si>
   <si>
@@ -475,9 +402,6 @@
     <t>熟練應用 AAS 全等性質判斷三角形是否全等。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 AAS (角角邊)：需「兩組對應角」相等，及「其中一組對應邊」等長。</t>
-  </si>
-  <si>
     <t>jh_geo_congruence_rhs</t>
   </si>
   <si>
@@ -490,9 +414,6 @@
     <t>熟練應用 RHS 全等性質判斷「直角」三角形是否全等。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 RHS (直角-斜邊-股)：必須是「直角」三角形，且「斜邊」(H) 和「一股」(S) 對應相等。</t>
-  </si>
-  <si>
     <t>jh_geo_perpendicular_bisector_property</t>
   </si>
   <si>
@@ -505,9 +426,6 @@
     <t>熟練應用「中垂線上任一點到兩端點等距」的性質。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生若 L 是 AB 的中垂線，則 P 在 L 上 ⇔ PA = PB。</t>
-  </si>
-  <si>
     <t>jh_geo_angle_bisector_property</t>
   </si>
   <si>
@@ -520,9 +438,6 @@
     <t>熟練應用「角平分線上任一點到兩邊等距」的性質。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生若 L 是 ∠A 的角平分線，則 P 在 L 上 ⇔ P 到兩邊「垂直距離」相等。</t>
-  </si>
-  <si>
     <t>jh_geo_triangle_side_relation</t>
   </si>
   <si>
@@ -535,9 +450,6 @@
     <t>熟練應用「兩邊之和大於第三邊」及「兩邊之差小於第三邊」。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 a, b, c 作為三角形三邊，必須滿足 a+b &gt; c 且 |a-b| &lt; c。</t>
-  </si>
-  <si>
     <t>jh_geo_triangle_angle_side_relation</t>
   </si>
   <si>
@@ -550,9 +462,6 @@
     <t>熟練應用「大角對大邊」與「大邊對大角」。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生在同一個三角形中，「最大角」對「最大邊」。</t>
-  </si>
-  <si>
     <t>jh_geo_parallel_lines_def</t>
   </si>
   <si>
@@ -565,9 +474,6 @@
     <t>熟練辨識平行線的同位角、內錯角、同側內角。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生辨識 F 型（同位角）、Z 型（內錯角）、C 型（同側內角）。</t>
-  </si>
-  <si>
     <t>jh_geo_parallel_lines_property_angles</t>
   </si>
   <si>
@@ -580,9 +486,6 @@
     <t>熟練應用 L₁//L₂ ⇒ 同位角相等、內錯角相等、同側內角互補。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「因為」L₁//L₂，「所以」同位角相等、內錯角相等。</t>
-  </si>
-  <si>
     <t>jh_geo_parallel_lines_test</t>
   </si>
   <si>
@@ -595,9 +498,6 @@
     <t>熟練應用截角性質判別兩直線是否平行。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「因為」同位角相等（或內錯角相等），「所以」L₁//L₂。</t>
-  </si>
-  <si>
     <t>jh_geo_construct_parallel_line</t>
   </si>
   <si>
@@ -610,9 +510,6 @@
     <t>熟練使用尺規作圖作出過線外一點的平行線。</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案（圖形）：{correct_answer}。如果錯誤，引導學生使用「作等角」（同位角或內錯角）的方法來作平行線。</t>
-  </si>
-  <si>
     <t>jh_geo_parallelogram_def_properties</t>
   </si>
   <si>
@@ -625,9 +522,6 @@
     <t>熟練平行四邊形的性質（對邊等長、對角相等、對角線互相平分）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生平行四邊形：1. 兩雙對邊等長。 2. 兩雙對角相等。 3. 對角線互相平分。</t>
-  </si>
-  <si>
     <t>jh_geo_parallelogram_tests</t>
   </si>
   <si>
@@ -640,9 +534,6 @@
     <t>熟練平行四邊形的判別性質（例如：一雙對邊平行且相等）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生判別方法：1. 兩雙對邊等長。 2. 兩雙對角相等。 3. 對角線互平分。 4. 一雙對邊平行且等長。</t>
-  </si>
-  <si>
     <t>jh_geo_rectangle_def_properties</t>
   </si>
   <si>
@@ -655,9 +546,6 @@
     <t>熟練長方形的定義與性質（四角皆直角、對角線等長）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「長方形」是「四個角都是 90°」的平行四邊形，其「對角線等長」。</t>
-  </si>
-  <si>
     <t>jh_geo_rhombus_def_properties</t>
   </si>
   <si>
@@ -670,9 +558,6 @@
     <t>熟練菱形的定義與性質（四邊皆等長、對角線互相垂直平分）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「菱形」是「四條邊都等長」的平行四邊形，其「對角線互相垂直」。</t>
-  </si>
-  <si>
     <t>jh_geo_square_def_properties</t>
   </si>
   <si>
@@ -685,9 +570,6 @@
     <t>熟練正方形的定義與性質（長方形 + 菱形）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「正方形」同時擁有長方形和菱形的所有性質。</t>
-  </si>
-  <si>
     <t>jh_geo_trapezoid_def_properties</t>
   </si>
   <si>
@@ -700,9 +582,6 @@
     <t>熟練梯形（僅一雙對邊平行）與等腰梯形（兩腰等長、底角相等）的性質。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「梯形」是「只有一雙」對邊平行。「等腰梯形」的兩底角相等，兩對角線等長。</t>
-  </si>
-  <si>
     <t>jh_geo_kite_def_properties</t>
   </si>
   <si>
@@ -715,23 +594,425 @@
     <t>熟練箏形的定義與性質（兩組鄰邊等長、對角線互相垂直）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「箏形」是「兩組鄰邊」分別等長，其「對角線互相垂直」。</t>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「等差數列」的「後項減前項」會是固定值（公差）。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，請引導學生檢查首項 a₁、公差 d 或項數 n 是否代入公式 aₙ = a₁ + (n-1)d 正確。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「等差中項」 = (前後兩項相加) / 2。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「級數」是將「數列」的各項相加。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生使用公式 Sₙ = (項數 × (首項 + 末項)) / 2，並檢查項數 n 是否正確。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「等比數列」的「後項除以前項」會是固定值（公比）。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，請引導學生檢查首項 a₁、公比 r 或項數 (n-1) (指數) 是否代入公式 aₙ = a₁ · rⁿ⁻¹ 正確。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「等比中項」b² = ac，因此 b = ±√(ac)，注意有「正負」兩解。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生費氏數列：1, 1, 2, 3, 5, 8... (後項 = 前兩項之和)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「函數」的定義：給定一個 x 值，只能得到「一個」y 值。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「線型函數」y = ax + b，圖形是直線。若 a=0 (y=b) 稱為常數函數；若 a≠0 稱為一次函數。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生將兩點坐標分別代入 y = ax + b，解 a 和 b 的聯立方程式。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「互餘」= 相加 90°；「互補」= 相加 180°；「對頂角」相等。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「三角形內角和」恆為 180°。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「外角定理」：外角 = 內對角 1 + 內對角 2。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 n 邊形內角和 = (n-2) × 180°。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「任何」凸多邊形的外角和「永遠」是 360°。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生使用「圓規」量取線段長度，並在新直線上畫弧。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生檢查「等角作圖」的步驟：1. 畫弧 2. 量開口 3. 畫弧。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生需以「兩端點」為圓心，「大於 1/2 線段長」為半徑畫弧。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生檢查「角平分線」的步驟：1. (以頂點) 畫弧 2. (以交點) 畫弧 3. 連線。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生以 P 為圓心，在線上取 A, B 兩點，再作 AB 的中垂線。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生以 P 為圓心畫弧交 L 於 A, B，再作 AB 的中垂線。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 △ABC ≅ △DEF ⇔ A 對 D, B 對 E, C 對 F。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 SSS (邊邊邊)：需「三組對應邊」皆等長。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 SAS (邊角邊)：角(A) 必須是兩邊(S, S) 的「夾角」。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 ASA (角邊角)：邊(S) 必須是兩角(A, A) 的「夾邊」。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 AAS (角角邊)：需「兩組對應角」相等，及「其中一組對應邊」等長。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 RHS (直角-斜邊-股)：必須是「直角」三角形，且「斜邊」(H) 和「一股」(S) 對應相等。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生若 L 是 AB 的中垂線，則 P 在 L 上 ⇔ PA = PB。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生若 L 是 ∠A 的角平分線，則 P 在 L 上 ⇔ P 到兩邊「垂直距離」相等。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 a, b, c 作為三角形三邊，必須滿足 a+b &gt; c 且 |a-b| &lt; c。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生在同一個三角形中，「最大角」對「最大邊」。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生辨識 F 型（同位角）、Z 型（內錯角）、C 型（同側內角）。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「因為」L₁//L₂，「所以」同位角相等、內錯角相等。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「因為」同位角相等（或內錯角相等），「所以」L₁//L₂。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生使用「作等角」（同位角或內錯角）的方法來作平行線。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生平行四邊形：1. 兩雙對邊等長。 2. 兩雙對角相等。 3. 對角線互相平分。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生判別方法：1. 兩雙對邊等長。 2. 兩雙對角相等。 3. 對角線互平分。 4. 一雙對邊平行且等長。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「長方形」是「四個角都是 90°」的平行四邊形，其「對角線等長」。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「菱形」是「四條邊都等長」的平行四邊形，其「對角線互相垂直」。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「正方形」同時擁有長方形和菱形的所有性質。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「梯形」是「只有一雙」對邊平行。「等腰梯形」的兩底角相等，兩對角線等長。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「箏形」是「兩組鄰邊」分別等長，其「對角線互相垂直」。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -740,36 +1021,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -959,20 +1247,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G45"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +1297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1024,1377 +1317,1377 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>5140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>5140.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>5150.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H4" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>5160.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>5170.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>36</v>
+        <v>195</v>
       </c>
       <c r="H6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>5180.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>5180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="H7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>5190.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>5190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>197</v>
       </c>
       <c r="H8" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>5200.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="H9" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>5210.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>5210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>5220.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>5230.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>5260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>5240.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>5270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>5250.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5</v>
+      </c>
+      <c r="I17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>5290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>5260.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H18" s="1">
+        <v>5</v>
+      </c>
+      <c r="I18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>5270.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="G19" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5</v>
+      </c>
+      <c r="I19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>5310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>5280.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H20" s="1">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>5290.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H21" s="1">
+        <v>5</v>
+      </c>
+      <c r="I21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>5330</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H18" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>5300.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H22" s="1">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H23" s="1">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>5350</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H19" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>5310.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H24" s="1">
+        <v>5</v>
+      </c>
+      <c r="I24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>5360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H20" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>5320.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H25" s="1">
+        <v>5</v>
+      </c>
+      <c r="I25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>5370</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H21" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
-        <v>5330.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H26" s="1">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H27" s="1">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H22" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>5340.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H28" s="1">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H23" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1">
-        <v>5350.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H29" s="1">
+        <v>5</v>
+      </c>
+      <c r="I29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>5410</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H24" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" s="1">
-        <v>5360.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="F30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5</v>
+      </c>
+      <c r="I30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H25" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1">
-        <v>5370.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="F31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H31" s="1">
+        <v>5</v>
+      </c>
+      <c r="I31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>5430</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="D32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="F32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H32" s="1">
+        <v>5</v>
+      </c>
+      <c r="I32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H26" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" s="1">
-        <v>5380.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="F33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H33" s="1">
+        <v>5</v>
+      </c>
+      <c r="I33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>5450</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H27" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1">
-        <v>5390.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="F34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H34" s="1">
+        <v>5</v>
+      </c>
+      <c r="I34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H28" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1">
-        <v>5400.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="D35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="F35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H35" s="1">
+        <v>5</v>
+      </c>
+      <c r="I35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>5470</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H29" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" s="1">
-        <v>5410.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="F36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H36" s="1">
+        <v>5</v>
+      </c>
+      <c r="I36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>5480</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="F37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H37" s="1">
+        <v>5</v>
+      </c>
+      <c r="I37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>5490</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H30" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1">
-        <v>5420.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="F38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H38" s="1">
+        <v>5</v>
+      </c>
+      <c r="I38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="1">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H31" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1">
-        <v>5430.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="D39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="F39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H39" s="1">
+        <v>5</v>
+      </c>
+      <c r="I39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1">
+        <v>5510</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H32" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" s="1">
-        <v>5440.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="D40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="F40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H40" s="1">
+        <v>5</v>
+      </c>
+      <c r="I40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1">
+        <v>5520</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="D41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H33" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" s="1">
-        <v>5450.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="F41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H41" s="1">
+        <v>5</v>
+      </c>
+      <c r="I41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1">
+        <v>5530</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="D42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="1" t="s">
+      <c r="F42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H42" s="1">
+        <v>5</v>
+      </c>
+      <c r="I42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1">
+        <v>5540</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H34" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" s="1">
-        <v>5460.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="F43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H43" s="1">
+        <v>5</v>
+      </c>
+      <c r="I43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1">
+        <v>5550</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H35" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" s="1">
-        <v>5470.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="D44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="F44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H44" s="1">
+        <v>5</v>
+      </c>
+      <c r="I44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1">
+        <v>5560</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H36" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" s="1">
-        <v>5480.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="D45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H37" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" s="1">
-        <v>5490.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H38" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" s="1">
-        <v>5500.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H39" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I39" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" s="1">
-        <v>5510.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H40" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I40" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" s="1">
-        <v>5520.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H41" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I41" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" s="1">
-        <v>5530.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H42" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I42" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" s="1">
-        <v>5540.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H43" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I43" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" s="1">
-        <v>5550.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H44" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I44" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" s="1">
-        <v>5560.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>15</v>
@@ -2403,16 +2696,17 @@
         <v>234</v>
       </c>
       <c r="H45" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I45" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J45" s="1">
-        <v>5570.0</v>
+        <v>5570</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>